--- a/Exp.xlsx
+++ b/Exp.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmai/Devs/Crowd-Flow-Inference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DE1179-573F-8244-9619-ED9A6BA3F439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489FB071-5345-8C40-B823-F8A24D281AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19440" activeTab="1" xr2:uid="{1D979B30-6FFF-3649-AEEC-A6A07D8CE43C}"/>
+    <workbookView xWindow="2360" yWindow="500" windowWidth="34560" windowHeight="19440" activeTab="2" xr2:uid="{1D979B30-6FFF-3649-AEEC-A6A07D8CE43C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Data" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="43">
   <si>
     <t>MA</t>
   </si>
@@ -100,6 +103,72 @@
   </si>
   <si>
     <t>Metric</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>LSTM w/o</t>
+  </si>
+  <si>
+    <t>Diffusion w/o</t>
+  </si>
+  <si>
+    <t>w/o OL</t>
+  </si>
+  <si>
+    <t>Models</t>
+  </si>
+  <si>
+    <t>Average RMSE (step)</t>
+  </si>
+  <si>
+    <t>Average RMSE (node)</t>
+  </si>
+  <si>
+    <t>Percentage Difference</t>
+  </si>
+  <si>
+    <t>Average RMSE</t>
+  </si>
+  <si>
+    <t>Average MAE</t>
+  </si>
+  <si>
+    <t>Percentage Improvement %</t>
+  </si>
+  <si>
+    <t>Num of Scenarios</t>
+  </si>
+  <si>
+    <t>Num of Edges</t>
+  </si>
+  <si>
+    <t>Total Time (mins)</t>
+  </si>
+  <si>
+    <t>Num of Nodes</t>
+  </si>
+  <si>
+    <t>Average Flow Rate (peds/10s)</t>
+  </si>
+  <si>
+    <t>Statistic</t>
+  </si>
+  <si>
+    <t>LSTM w/o OL</t>
+  </si>
+  <si>
+    <t>GCN w/o OL</t>
+  </si>
+  <si>
+    <t>GAT w/o OL</t>
+  </si>
+  <si>
+    <t>Diffusion w/o OL</t>
+  </si>
+  <si>
+    <t>Percentage of Decress</t>
   </si>
 </sst>
 </file>
@@ -109,7 +178,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -130,6 +199,14 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -139,7 +216,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -147,11 +224,426 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -159,7 +651,168 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,7 +1149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90AA2293-1005-6C44-8AEE-A4B94CC4173C}">
   <dimension ref="B2:N30"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="105" workbookViewId="0">
+    <sheetView zoomScale="105" workbookViewId="0">
       <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
@@ -513,12 +1166,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
@@ -538,7 +1191,7 @@
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="43" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
@@ -561,7 +1214,7 @@
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B5" s="4"/>
+      <c r="B5" s="43"/>
       <c r="C5" t="s">
         <v>8</v>
       </c>
@@ -582,7 +1235,7 @@
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="4"/>
+      <c r="B6" s="43"/>
       <c r="C6" t="s">
         <v>9</v>
       </c>
@@ -603,7 +1256,7 @@
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="43" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -626,7 +1279,7 @@
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B8" s="4"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
@@ -647,7 +1300,7 @@
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B9" s="4"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
@@ -668,7 +1321,7 @@
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="43" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -676,13 +1329,13 @@
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="4"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B12" s="4"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="1" t="s">
         <v>9</v>
       </c>
@@ -691,7 +1344,7 @@
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B13" s="4"/>
+      <c r="B13" s="43"/>
       <c r="E13" t="s">
         <v>7</v>
       </c>
@@ -709,7 +1362,7 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B14" s="4"/>
+      <c r="B14" s="43"/>
       <c r="D14" t="s">
         <v>0</v>
       </c>
@@ -733,7 +1386,7 @@
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B15" s="4"/>
+      <c r="B15" s="43"/>
       <c r="D15" t="s">
         <v>1</v>
       </c>
@@ -751,7 +1404,7 @@
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B16" s="4"/>
+      <c r="B16" s="43"/>
       <c r="D16" t="s">
         <v>5</v>
       </c>
@@ -803,7 +1456,7 @@
       </c>
     </row>
     <row r="19" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="43" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="2"/>
@@ -811,7 +1464,7 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C20" s="4"/>
+      <c r="C20" s="43"/>
       <c r="D20" t="s">
         <v>0</v>
       </c>
@@ -829,7 +1482,7 @@
       </c>
     </row>
     <row r="21" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C21" s="4"/>
+      <c r="C21" s="43"/>
       <c r="D21" t="s">
         <v>1</v>
       </c>
@@ -847,7 +1500,7 @@
       </c>
     </row>
     <row r="22" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C22" s="4"/>
+      <c r="C22" s="43"/>
       <c r="D22" t="s">
         <v>5</v>
       </c>
@@ -865,7 +1518,7 @@
       </c>
     </row>
     <row r="23" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C23" s="4"/>
+      <c r="C23" s="43"/>
       <c r="D23" t="s">
         <v>6</v>
       </c>
@@ -883,7 +1536,7 @@
       </c>
     </row>
     <row r="24" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C24" s="4"/>
+      <c r="C24" s="43"/>
       <c r="D24" t="s">
         <v>2</v>
       </c>
@@ -901,12 +1554,12 @@
       </c>
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C25" s="4"/>
+      <c r="C25" s="43"/>
       <c r="E25" s="2"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C26" s="4"/>
+      <c r="C26" s="43"/>
       <c r="D26" t="s">
         <v>0</v>
       </c>
@@ -924,7 +1577,7 @@
       </c>
     </row>
     <row r="27" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C27" s="4"/>
+      <c r="C27" s="43"/>
       <c r="D27" t="s">
         <v>1</v>
       </c>
@@ -1009,10 +1662,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{268DC488-88FE-EB4C-94F6-9E918A6B3E16}">
-  <dimension ref="C4:O19"/>
+  <dimension ref="C4:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1020,9 +1673,10 @@
     <col min="6" max="6" width="16.33203125" customWidth="1"/>
     <col min="9" max="9" width="14.83203125" customWidth="1"/>
     <col min="10" max="10" width="30.33203125" customWidth="1"/>
+    <col min="11" max="11" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>15</v>
       </c>
@@ -1033,138 +1687,141 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C5" s="4" t="s">
+    <row r="5" spans="3:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="43" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
         <v>0</v>
       </c>
-      <c r="J5" t="s">
+      <c r="I5" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C6" s="4"/>
+    <row r="6" spans="3:15" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="43"/>
       <c r="D6" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="7">
         <v>27.03</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="7">
         <v>88.64</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="7">
         <v>97.06</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="7">
         <v>75.09</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="7">
         <v>37.1</v>
       </c>
     </row>
     <row r="7" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C7" s="4"/>
+      <c r="C7" s="43"/>
       <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" t="s">
+      <c r="I7" s="45"/>
+      <c r="J7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="10">
         <v>17.690000000000001</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="10">
         <v>55.51</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="10">
         <v>61.29</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="10">
         <v>49.08</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="10">
         <v>23.83</v>
       </c>
     </row>
     <row r="8" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C8" s="4"/>
+      <c r="C8" s="43"/>
       <c r="D8" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="6">
         <v>11.93</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="6">
         <v>17.670000000000002</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="6">
         <v>15.97</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="6">
         <v>12.83</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8" s="6">
         <v>12.31</v>
       </c>
     </row>
     <row r="9" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C9" s="4"/>
+      <c r="C9" s="43"/>
       <c r="D9" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" t="s">
+      <c r="I9" s="45"/>
+      <c r="J9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="10">
         <v>31.59</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="10">
         <v>46.47</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="10">
         <v>42.04</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="10">
         <v>34.020000000000003</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="10">
         <v>32.590000000000003</v>
       </c>
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="43" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
@@ -1176,30 +1833,30 @@
       <c r="F10">
         <v>31.59</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="7">
         <v>28.63</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="7">
         <v>31.13</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="7">
         <v>26.67</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" s="7">
         <v>21.91</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10" s="7">
         <v>21.95</v>
       </c>
     </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C11" s="4"/>
+    <row r="11" spans="3:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="43"/>
       <c r="D11" t="s">
         <v>5</v>
       </c>
@@ -1209,28 +1866,28 @@
       <c r="F11">
         <v>46.47</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" t="s">
+      <c r="I11" s="48"/>
+      <c r="J11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="8">
         <v>60.63</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="8">
         <v>68.31</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="8">
         <v>58.3</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="8">
         <v>48.39</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11" s="8">
         <v>48.31</v>
       </c>
     </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C12" s="4"/>
+    <row r="12" spans="3:15" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="43"/>
       <c r="D12" t="s">
         <v>6</v>
       </c>
@@ -1242,7 +1899,7 @@
       </c>
     </row>
     <row r="13" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C13" s="4"/>
+      <c r="C13" s="43"/>
       <c r="D13" t="s">
         <v>1</v>
       </c>
@@ -1254,7 +1911,7 @@
       </c>
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C14" s="4"/>
+      <c r="C14" s="43"/>
       <c r="D14" t="s">
         <v>2</v>
       </c>
@@ -1265,40 +1922,330 @@
         <v>32.590000000000003</v>
       </c>
     </row>
-    <row r="15" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C15" s="4" t="s">
+    <row r="15" spans="3:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C16" s="4"/>
+    <row r="16" spans="3:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="43"/>
       <c r="D16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C17" s="4"/>
+      <c r="I16" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="3:16" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="43"/>
       <c r="D17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C18" s="4"/>
+      <c r="I17" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" s="7">
+        <v>3116.04</v>
+      </c>
+      <c r="K17" s="7">
+        <v>5108.58</v>
+      </c>
+      <c r="L17" s="7">
+        <v>1827.34</v>
+      </c>
+      <c r="M17" s="7">
+        <v>3954.06</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C18" s="43"/>
       <c r="D18" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C19" s="4"/>
+      <c r="I18" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="21">
+        <v>1888.5</v>
+      </c>
+      <c r="K18" s="21">
+        <v>4384.53</v>
+      </c>
+      <c r="L18" s="21">
+        <v>1852.82</v>
+      </c>
+      <c r="M18" s="21">
+        <v>1996.62</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="43"/>
       <c r="D19" t="s">
         <v>2</v>
       </c>
-    </row>
+      <c r="I19" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="22">
+        <v>3028.11</v>
+      </c>
+      <c r="K19" s="22">
+        <v>3734.59</v>
+      </c>
+      <c r="L19" s="22">
+        <v>3250.42</v>
+      </c>
+      <c r="M19" s="22">
+        <v>3294.56</v>
+      </c>
+    </row>
+    <row r="20" spans="3:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="3:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I21" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="I22" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="7">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="K22" s="7">
+        <v>14.19</v>
+      </c>
+      <c r="L22" s="7">
+        <v>5.07</v>
+      </c>
+      <c r="M22" s="7">
+        <v>10.98</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="I23" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="21">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="K23" s="21">
+        <v>3.17</v>
+      </c>
+      <c r="L23" s="21">
+        <v>2.02</v>
+      </c>
+      <c r="M23" s="21">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I24" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" s="22">
+        <v>3.27</v>
+      </c>
+      <c r="K24" s="22">
+        <v>4.04</v>
+      </c>
+      <c r="L24" s="22">
+        <v>3.52</v>
+      </c>
+      <c r="M24" s="22">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="3:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="3:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J29" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="M29" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="O29" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="P29" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="J30" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="K30" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L30" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="M30" s="7">
+        <v>5.51</v>
+      </c>
+      <c r="N30" s="7">
+        <v>9.01</v>
+      </c>
+      <c r="O30" s="7">
+        <v>12.51</v>
+      </c>
+      <c r="P30" s="7">
+        <v>6.18</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="J31" s="45"/>
+      <c r="K31" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31" s="10">
+        <v>4.42</v>
+      </c>
+      <c r="M31" s="10">
+        <v>5.34</v>
+      </c>
+      <c r="N31" s="4">
+        <v>8.81</v>
+      </c>
+      <c r="O31" s="10">
+        <v>12.27</v>
+      </c>
+      <c r="P31" s="10">
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="J32" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="K32" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="L32" s="6">
+        <v>1.98</v>
+      </c>
+      <c r="M32" s="6">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="N32" s="6">
+        <v>2.12</v>
+      </c>
+      <c r="O32" s="6">
+        <v>2.13</v>
+      </c>
+      <c r="P32" s="6">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J33" s="45"/>
+      <c r="K33" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L33" s="6">
+        <v>1.97</v>
+      </c>
+      <c r="M33" s="6">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="N33" s="6">
+        <v>2.09</v>
+      </c>
+      <c r="O33" s="6">
+        <v>2.12</v>
+      </c>
+      <c r="P33" s="6">
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J34" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="K34" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L34" s="7">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="M34" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="N34" s="7">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="O34" s="7">
+        <v>3.65</v>
+      </c>
+      <c r="P34" s="7">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="35" spans="10:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J35" s="48"/>
+      <c r="K35" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="L35" s="8">
+        <v>4.33</v>
+      </c>
+      <c r="M35" s="8">
+        <v>3.92</v>
+      </c>
+      <c r="N35" s="8">
+        <v>4.16</v>
+      </c>
+      <c r="O35" s="8">
+        <v>3.46</v>
+      </c>
+      <c r="P35" s="8">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="36" spans="10:16" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="J34:J35"/>
     <mergeCell ref="C10:C14"/>
     <mergeCell ref="C5:C9"/>
     <mergeCell ref="C15:C19"/>
@@ -1309,4 +2256,1204 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83574F29-7C46-7341-8400-FC1C4533CA25}">
+  <dimension ref="F3:I42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="23.5" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="13" max="13" width="13.5" customWidth="1"/>
+    <col min="14" max="14" width="21.33203125" customWidth="1"/>
+    <col min="15" max="15" width="15.83203125" customWidth="1"/>
+    <col min="16" max="16" width="18.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F3" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6">
+        <v>3116.04</v>
+      </c>
+      <c r="H4" s="6">
+        <v>1888.5</v>
+      </c>
+      <c r="I4" s="6">
+        <v>3028.11</v>
+      </c>
+    </row>
+    <row r="5" spans="6:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="20">
+        <v>5108.58</v>
+      </c>
+      <c r="H5" s="20">
+        <v>4384.53</v>
+      </c>
+      <c r="I5" s="20">
+        <v>3734.59</v>
+      </c>
+    </row>
+    <row r="6" spans="6:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="F6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1827.34</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1852.82</v>
+      </c>
+      <c r="I6" s="7">
+        <v>3250.42</v>
+      </c>
+    </row>
+    <row r="7" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="10">
+        <v>3954.06</v>
+      </c>
+      <c r="H7" s="10">
+        <v>1996.62</v>
+      </c>
+      <c r="I7" s="10">
+        <v>3294.56</v>
+      </c>
+    </row>
+    <row r="11" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F11" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="6">
+        <v>14.44</v>
+      </c>
+      <c r="H12" s="6">
+        <v>2.14</v>
+      </c>
+      <c r="I12" s="6">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="13" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F13" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="56">
+        <v>16.91</v>
+      </c>
+      <c r="H13" s="56">
+        <v>4.5</v>
+      </c>
+      <c r="I13" s="56">
+        <v>4.2699999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F14" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="56">
+        <v>14.61</v>
+      </c>
+      <c r="H14" s="56">
+        <v>2.25</v>
+      </c>
+      <c r="I14" s="56">
+        <v>4.2300000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F15" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="56">
+        <v>16.04</v>
+      </c>
+      <c r="H15" s="56">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="I15" s="56">
+        <v>4.3499999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F16" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="56">
+        <v>15.28</v>
+      </c>
+      <c r="H16" s="56">
+        <v>2.06</v>
+      </c>
+      <c r="I16" s="56">
+        <v>4.21</v>
+      </c>
+    </row>
+    <row r="17" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F17" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="56">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="H17" s="56">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="I17" s="56">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="18" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="7">
+        <v>14.16</v>
+      </c>
+      <c r="H18" s="7">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I18" s="7">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="19" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F19" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="10">
+        <v>14.93</v>
+      </c>
+      <c r="H19" s="10">
+        <v>4.59</v>
+      </c>
+      <c r="I19" s="10">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="23" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F23" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="59" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F24" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" s="57">
+        <v>0.14610000000000001</v>
+      </c>
+      <c r="H24" s="57">
+        <v>0.52439999999999998</v>
+      </c>
+      <c r="I24" s="57">
+        <v>0.18029999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="57">
+        <v>8.9200000000000002E-2</v>
+      </c>
+      <c r="H25" s="57">
+        <v>0.4839</v>
+      </c>
+      <c r="I25" s="57">
+        <v>2.76E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="57">
+        <v>7.9500000000000001E-2</v>
+      </c>
+      <c r="H26" s="57">
+        <v>0.55310000000000004</v>
+      </c>
+      <c r="I26" s="57">
+        <v>7.4700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F27" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" s="60">
+        <v>5.16E-2</v>
+      </c>
+      <c r="H27" s="60">
+        <v>0.55769999999999997</v>
+      </c>
+      <c r="I27" s="60">
+        <v>2.7000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F30" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F31" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" s="6">
+        <v>14.44</v>
+      </c>
+      <c r="H31" s="6">
+        <v>2.14</v>
+      </c>
+      <c r="I31" s="6">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="32" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F32" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="10">
+        <v>16.91</v>
+      </c>
+      <c r="H32" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="I32" s="10">
+        <v>4.2699999999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F33" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="G33" s="58">
+        <v>0.14610000000000001</v>
+      </c>
+      <c r="H33" s="58">
+        <v>0.52439999999999998</v>
+      </c>
+      <c r="I33" s="58">
+        <v>0.18029999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F34" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" s="56">
+        <v>14.61</v>
+      </c>
+      <c r="H34" s="56">
+        <v>2.25</v>
+      </c>
+      <c r="I34" s="56">
+        <v>4.2300000000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F35" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="10">
+        <v>16.04</v>
+      </c>
+      <c r="H35" s="10">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="I35" s="10">
+        <v>4.3499999999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F36" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="G36" s="58">
+        <v>8.9200000000000002E-2</v>
+      </c>
+      <c r="H36" s="58">
+        <v>0.4839</v>
+      </c>
+      <c r="I36" s="58">
+        <v>2.76E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F37" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" s="56">
+        <v>15.28</v>
+      </c>
+      <c r="H37" s="56">
+        <v>2.06</v>
+      </c>
+      <c r="I37" s="56">
+        <v>4.21</v>
+      </c>
+    </row>
+    <row r="38" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F38" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38" s="56">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="H38" s="56">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="I38" s="56">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="39" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F39" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="G39" s="58">
+        <v>7.9500000000000001E-2</v>
+      </c>
+      <c r="H39" s="58">
+        <v>0.55310000000000004</v>
+      </c>
+      <c r="I39" s="58">
+        <v>7.4700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F40" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G40" s="7">
+        <v>14.16</v>
+      </c>
+      <c r="H40" s="7">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I40" s="7">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="41" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F41" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G41" s="10">
+        <v>14.93</v>
+      </c>
+      <c r="H41" s="10">
+        <v>4.59</v>
+      </c>
+      <c r="I41" s="10">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="42" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F42" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="G42" s="58">
+        <v>5.16E-2</v>
+      </c>
+      <c r="H42" s="58">
+        <v>0.55769999999999997</v>
+      </c>
+      <c r="I42" s="58">
+        <v>2.7000000000000001E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B03FF77-2587-DC43-853A-7572502D4BD9}">
+  <dimension ref="F3:W32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V22" sqref="V22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="12.1640625" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" customWidth="1"/>
+    <col min="16" max="16" width="7.33203125" customWidth="1"/>
+    <col min="17" max="17" width="16.83203125" customWidth="1"/>
+    <col min="18" max="18" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="6:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="6:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="6:12" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="F5" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="30">
+        <v>4.5</v>
+      </c>
+      <c r="I5" s="30">
+        <v>5.43</v>
+      </c>
+      <c r="J5" s="30">
+        <v>8.31</v>
+      </c>
+      <c r="K5" s="30">
+        <v>12.51</v>
+      </c>
+      <c r="L5" s="30">
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="6" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F6" s="50"/>
+      <c r="G6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="7">
+        <v>4.42</v>
+      </c>
+      <c r="I6" s="7">
+        <v>5.36</v>
+      </c>
+      <c r="J6" s="4">
+        <v>8.81</v>
+      </c>
+      <c r="K6" s="7">
+        <v>12.27</v>
+      </c>
+      <c r="L6" s="7">
+        <v>5.77</v>
+      </c>
+    </row>
+    <row r="7" spans="6:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="51"/>
+      <c r="G7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="7">
+        <f>(H5-H5)/H5*100</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+    </row>
+    <row r="8" spans="6:12" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="F8" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="33">
+        <v>1.98</v>
+      </c>
+      <c r="I8" s="6">
+        <v>2.25</v>
+      </c>
+      <c r="J8" s="6">
+        <v>2.06</v>
+      </c>
+      <c r="K8" s="6">
+        <v>2.14</v>
+      </c>
+      <c r="L8" s="6">
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F9" s="50"/>
+      <c r="G9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1.97</v>
+      </c>
+      <c r="I9" s="7">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="J9" s="7">
+        <v>2.09</v>
+      </c>
+      <c r="K9" s="7">
+        <v>2.12</v>
+      </c>
+      <c r="L9" s="7">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="6:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="51"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+    </row>
+    <row r="11" spans="6:12" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="F11" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="7">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="I11" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="J11" s="7">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="K11" s="7">
+        <v>3.51</v>
+      </c>
+      <c r="L11" s="7">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="12" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F12" s="50"/>
+      <c r="G12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="7">
+        <v>4.33</v>
+      </c>
+      <c r="I12" s="7">
+        <v>3.92</v>
+      </c>
+      <c r="J12" s="7">
+        <v>4.16</v>
+      </c>
+      <c r="K12" s="7">
+        <v>3.33</v>
+      </c>
+      <c r="L12" s="7">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="13" spans="6:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="53"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+    </row>
+    <row r="14" spans="6:12" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+    </row>
+    <row r="15" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+    </row>
+    <row r="16" spans="6:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="6:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q17" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="S17" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="T17" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="U17" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="V17" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="W17" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="6:23" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="Q18" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="S18" s="30">
+        <v>4.5</v>
+      </c>
+      <c r="T18" s="30">
+        <v>5.44</v>
+      </c>
+      <c r="U18" s="30">
+        <v>8.31</v>
+      </c>
+      <c r="V18" s="30">
+        <v>9.35</v>
+      </c>
+      <c r="W18" s="30">
+        <v>5.86</v>
+      </c>
+    </row>
+    <row r="19" spans="6:23" x14ac:dyDescent="0.2">
+      <c r="Q19" s="43"/>
+      <c r="R19" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="S19" s="7">
+        <v>14.21</v>
+      </c>
+      <c r="T19" s="7">
+        <v>14.61</v>
+      </c>
+      <c r="U19" s="4">
+        <v>15.28</v>
+      </c>
+      <c r="V19" s="7">
+        <v>14.44</v>
+      </c>
+      <c r="W19" s="7">
+        <v>14.16</v>
+      </c>
+    </row>
+    <row r="20" spans="6:23" x14ac:dyDescent="0.2">
+      <c r="Q20" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="R20" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="S20" s="33">
+        <v>1.98</v>
+      </c>
+      <c r="T20" s="6">
+        <v>2.25</v>
+      </c>
+      <c r="U20" s="6">
+        <v>2.06</v>
+      </c>
+      <c r="V20" s="6">
+        <v>2.14</v>
+      </c>
+      <c r="W20" s="6">
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="6:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q21" s="50"/>
+      <c r="R21" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="S21" s="7">
+        <v>3</v>
+      </c>
+      <c r="T21" s="7">
+        <v>3.08</v>
+      </c>
+      <c r="U21" s="7">
+        <v>3.02</v>
+      </c>
+      <c r="V21" s="7">
+        <v>3</v>
+      </c>
+      <c r="W21" s="7">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="22" spans="6:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="R22" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="S22" s="33">
+        <v>4.8</v>
+      </c>
+      <c r="T22" s="6">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="U22" s="6">
+        <v>4.21</v>
+      </c>
+      <c r="V22" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="W22" s="6">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="23" spans="6:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="30">
+        <v>4.5</v>
+      </c>
+      <c r="I23" s="30">
+        <v>5.44</v>
+      </c>
+      <c r="J23" s="30">
+        <v>8.31</v>
+      </c>
+      <c r="K23" s="30">
+        <v>9.35</v>
+      </c>
+      <c r="L23" s="30">
+        <v>5.86</v>
+      </c>
+      <c r="Q23" s="54"/>
+      <c r="R23" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="S23" s="39">
+        <v>4.2</v>
+      </c>
+      <c r="T23" s="40">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="U23" s="40">
+        <v>4.24</v>
+      </c>
+      <c r="V23" s="40">
+        <v>4.38</v>
+      </c>
+      <c r="W23" s="40">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="24" spans="6:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F24" s="43"/>
+      <c r="G24" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>14.21</v>
+      </c>
+      <c r="I24" s="7">
+        <v>14.61</v>
+      </c>
+      <c r="J24" s="4">
+        <v>15.28</v>
+      </c>
+      <c r="K24" s="7">
+        <v>14.44</v>
+      </c>
+      <c r="L24" s="7">
+        <v>14.16</v>
+      </c>
+      <c r="Q24" s="37"/>
+    </row>
+    <row r="25" spans="6:23" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="F25" s="51"/>
+      <c r="G25" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="7">
+        <f>(H23-H23)/H23*100</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <f>(H24-I24)/H24*100</f>
+        <v>-2.8149190710766963</v>
+      </c>
+      <c r="J25" s="7">
+        <f>(H24-J24)/H24*100</f>
+        <v>-7.5299085151301792</v>
+      </c>
+      <c r="K25" s="7">
+        <f>(H24-K24)/H24*100</f>
+        <v>-1.6185784658690967</v>
+      </c>
+      <c r="L25" s="7">
+        <f>(H24-L24)/H24*100</f>
+        <v>0.3518648838845933</v>
+      </c>
+    </row>
+    <row r="26" spans="6:23" x14ac:dyDescent="0.2">
+      <c r="F26" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" s="33">
+        <v>1.98</v>
+      </c>
+      <c r="I26" s="6">
+        <v>2.25</v>
+      </c>
+      <c r="J26" s="6">
+        <v>2.06</v>
+      </c>
+      <c r="K26" s="6">
+        <v>2.14</v>
+      </c>
+      <c r="L26" s="6">
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="6:23" x14ac:dyDescent="0.2">
+      <c r="F27" s="50"/>
+      <c r="G27" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
+        <v>3</v>
+      </c>
+      <c r="I27" s="7">
+        <v>3.08</v>
+      </c>
+      <c r="J27" s="7">
+        <v>3.02</v>
+      </c>
+      <c r="K27" s="7">
+        <v>3</v>
+      </c>
+      <c r="L27" s="7">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="28" spans="6:23" x14ac:dyDescent="0.2">
+      <c r="F28" s="51"/>
+      <c r="G28" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" s="36">
+        <f>(H27-H27)/H27*100</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="10">
+        <f>(H27-I27)/H27*100</f>
+        <v>-2.6666666666666687</v>
+      </c>
+      <c r="J28" s="10">
+        <f>(H27-J27)/H27*100</f>
+        <v>-0.66666666666666718</v>
+      </c>
+      <c r="K28" s="10">
+        <f>(H27-K27)/H27*100</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="10">
+        <f>(H27-L27)/H27*100</f>
+        <v>6.9999999999999991</v>
+      </c>
+    </row>
+    <row r="29" spans="6:23" x14ac:dyDescent="0.2">
+      <c r="F29" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" s="7">
+        <v>4.8</v>
+      </c>
+      <c r="I29" s="7">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="J29" s="7">
+        <v>4.21</v>
+      </c>
+      <c r="K29" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="L29" s="7">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="30" spans="6:23" x14ac:dyDescent="0.2">
+      <c r="F30" s="50"/>
+      <c r="G30" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="I30" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J30" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="K30" s="7">
+        <v>4.38</v>
+      </c>
+      <c r="L30" s="7">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="31" spans="6:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F31" s="53"/>
+      <c r="G31" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" s="8">
+        <f>(H30-H30)/H30*100</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="8">
+        <f>(H30-I30)/H30*100</f>
+        <v>-4.7619047619047654</v>
+      </c>
+      <c r="J31" s="8">
+        <f>(H30-J30)/H30*100</f>
+        <v>-0.95238095238095322</v>
+      </c>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+    </row>
+    <row r="32" spans="6:23" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="F11:F13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD62037B-924B-AF46-BC58-DA566B550452}">
+  <dimension ref="C4:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="38.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="25.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="4">
+        <v>15</v>
+      </c>
+      <c r="E5" s="4">
+        <v>15</v>
+      </c>
+      <c r="F5" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="4">
+        <v>300</v>
+      </c>
+      <c r="E6" s="4">
+        <v>765</v>
+      </c>
+      <c r="F6" s="4">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="4">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4">
+        <v>24</v>
+      </c>
+      <c r="F7" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="4">
+        <v>12</v>
+      </c>
+      <c r="E8" s="4">
+        <v>48</v>
+      </c>
+      <c r="F8" s="4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C9" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="9">
+        <v>14</v>
+      </c>
+      <c r="E9" s="9">
+        <v>3</v>
+      </c>
+      <c r="F9" s="9">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Exp.xlsx
+++ b/Exp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmai/Devs/Crowd-Flow-Inference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489FB071-5345-8C40-B823-F8A24D281AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCE8237-9357-3147-87A1-D5900CF4D2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2360" yWindow="500" windowWidth="34560" windowHeight="19440" activeTab="2" xr2:uid="{1D979B30-6FFF-3649-AEEC-A6A07D8CE43C}"/>
+    <workbookView xWindow="2500" yWindow="1020" windowWidth="34560" windowHeight="19440" activeTab="5" xr2:uid="{1D979B30-6FFF-3649-AEEC-A6A07D8CE43C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Data" sheetId="5" r:id="rId5"/>
+    <sheet name="Trainable params" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="67">
   <si>
     <t>MA</t>
   </si>
@@ -170,15 +171,88 @@
   <si>
     <t>Percentage of Decress</t>
   </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Size of a chunk</t>
+  </si>
+  <si>
+    <t>Length of a time step</t>
+  </si>
+  <si>
+    <t>Prediction horizons</t>
+  </si>
+  <si>
+    <t>Lags of observation</t>
+  </si>
+  <si>
+    <t>Replay buffer size</t>
+  </si>
+  <si>
+    <t>1 min</t>
+  </si>
+  <si>
+    <t>10 s</t>
+  </si>
+  <si>
+    <t>Retraining steps</t>
+  </si>
+  <si>
+    <t>Batch size</t>
+  </si>
+  <si>
+    <t>TranStation</t>
+  </si>
+  <si>
+    <t>TrainStation</t>
+  </si>
+  <si>
+    <t>Maze</t>
+  </si>
+  <si>
+    <t>rmse</t>
+  </si>
+  <si>
+    <t>mae</t>
+  </si>
+  <si>
+    <t>CrossRoad</t>
+  </si>
+  <si>
+    <t>crossroad</t>
+  </si>
+  <si>
+    <t>Trainstation</t>
+  </si>
+  <si>
+    <t>cross</t>
+  </si>
+  <si>
+    <t>params</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>\</t>
+  </si>
+  <si>
+    <t>Trainable Params</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -207,6 +281,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -643,7 +724,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -759,6 +840,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -795,22 +888,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -828,6 +932,1982 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MAZE RMSE</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$N$44:$W$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.028</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.077</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.222</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.165</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3210000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4129999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4289999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.2610000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E8E3-224A-954B-4E3139D011C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$N$51:$W$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.0539999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0019999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9970000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.986</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9970000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.089</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E8E3-224A-954B-4E3139D011C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1140832512"/>
+        <c:axId val="384197664"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1140832512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="384197664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="384197664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1140832512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$N$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.448</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$O$45:$W$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.4710000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5169999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5529999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5349999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5720000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.639</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6870000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.734</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3860000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C974-AD4B-91CC-2CAC10B5844E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$N$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.453</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$O$52:$W$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.409</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.407</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.403</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3979999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.403</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4079999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4770000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C974-AD4B-91CC-2CAC10B5844E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="380113616"/>
+        <c:axId val="1492555184"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="380113616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1492555184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1492555184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="380113616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3736</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>176679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>118036</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>75080</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07D33CF9-BEC2-A1FB-E97A-C63B44EA89E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>782277</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>138526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>82176</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>42903</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DE6C2D4-7969-D185-C4B4-66F99055AC99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1166,12 +3246,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
@@ -1191,7 +3271,7 @@
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="47" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
@@ -1214,7 +3294,7 @@
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B5" s="43"/>
+      <c r="B5" s="47"/>
       <c r="C5" t="s">
         <v>8</v>
       </c>
@@ -1235,7 +3315,7 @@
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="43"/>
+      <c r="B6" s="47"/>
       <c r="C6" t="s">
         <v>9</v>
       </c>
@@ -1256,7 +3336,7 @@
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="47" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1279,7 +3359,7 @@
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B8" s="43"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1300,7 +3380,7 @@
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B9" s="43"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1321,7 +3401,7 @@
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="47" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1329,13 +3409,13 @@
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="43"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B12" s="43"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1344,7 +3424,7 @@
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B13" s="43"/>
+      <c r="B13" s="47"/>
       <c r="E13" t="s">
         <v>7</v>
       </c>
@@ -1362,7 +3442,7 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B14" s="43"/>
+      <c r="B14" s="47"/>
       <c r="D14" t="s">
         <v>0</v>
       </c>
@@ -1386,7 +3466,7 @@
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B15" s="43"/>
+      <c r="B15" s="47"/>
       <c r="D15" t="s">
         <v>1</v>
       </c>
@@ -1404,7 +3484,7 @@
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B16" s="43"/>
+      <c r="B16" s="47"/>
       <c r="D16" t="s">
         <v>5</v>
       </c>
@@ -1456,7 +3536,7 @@
       </c>
     </row>
     <row r="19" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="47" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="2"/>
@@ -1464,7 +3544,7 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C20" s="43"/>
+      <c r="C20" s="47"/>
       <c r="D20" t="s">
         <v>0</v>
       </c>
@@ -1482,7 +3562,7 @@
       </c>
     </row>
     <row r="21" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C21" s="43"/>
+      <c r="C21" s="47"/>
       <c r="D21" t="s">
         <v>1</v>
       </c>
@@ -1500,7 +3580,7 @@
       </c>
     </row>
     <row r="22" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C22" s="43"/>
+      <c r="C22" s="47"/>
       <c r="D22" t="s">
         <v>5</v>
       </c>
@@ -1518,7 +3598,7 @@
       </c>
     </row>
     <row r="23" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C23" s="43"/>
+      <c r="C23" s="47"/>
       <c r="D23" t="s">
         <v>6</v>
       </c>
@@ -1536,7 +3616,7 @@
       </c>
     </row>
     <row r="24" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C24" s="43"/>
+      <c r="C24" s="47"/>
       <c r="D24" t="s">
         <v>2</v>
       </c>
@@ -1554,12 +3634,12 @@
       </c>
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C25" s="43"/>
+      <c r="C25" s="47"/>
       <c r="E25" s="2"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C26" s="43"/>
+      <c r="C26" s="47"/>
       <c r="D26" t="s">
         <v>0</v>
       </c>
@@ -1577,7 +3657,7 @@
       </c>
     </row>
     <row r="27" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C27" s="43"/>
+      <c r="C27" s="47"/>
       <c r="D27" t="s">
         <v>1</v>
       </c>
@@ -1688,7 +3768,7 @@
       </c>
     </row>
     <row r="5" spans="3:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="47" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
@@ -1717,11 +3797,11 @@
       </c>
     </row>
     <row r="6" spans="3:15" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="43"/>
+      <c r="C6" s="47"/>
       <c r="D6" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="44" t="s">
+      <c r="I6" s="48" t="s">
         <v>3</v>
       </c>
       <c r="J6" s="15" t="s">
@@ -1744,11 +3824,11 @@
       </c>
     </row>
     <row r="7" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C7" s="43"/>
+      <c r="C7" s="47"/>
       <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="45"/>
+      <c r="I7" s="49"/>
       <c r="J7" s="16" t="s">
         <v>17</v>
       </c>
@@ -1769,11 +3849,11 @@
       </c>
     </row>
     <row r="8" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C8" s="43"/>
+      <c r="C8" s="47"/>
       <c r="D8" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="46" t="s">
+      <c r="I8" s="50" t="s">
         <v>18</v>
       </c>
       <c r="J8" s="17" t="s">
@@ -1796,11 +3876,11 @@
       </c>
     </row>
     <row r="9" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C9" s="43"/>
+      <c r="C9" s="47"/>
       <c r="D9" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="45"/>
+      <c r="I9" s="49"/>
       <c r="J9" s="16" t="s">
         <v>17</v>
       </c>
@@ -1821,7 +3901,7 @@
       </c>
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="47" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
@@ -1833,7 +3913,7 @@
       <c r="F10">
         <v>31.59</v>
       </c>
-      <c r="I10" s="47" t="s">
+      <c r="I10" s="51" t="s">
         <v>19</v>
       </c>
       <c r="J10" s="15" t="s">
@@ -1856,7 +3936,7 @@
       </c>
     </row>
     <row r="11" spans="3:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="43"/>
+      <c r="C11" s="47"/>
       <c r="D11" t="s">
         <v>5</v>
       </c>
@@ -1866,7 +3946,7 @@
       <c r="F11">
         <v>46.47</v>
       </c>
-      <c r="I11" s="48"/>
+      <c r="I11" s="52"/>
       <c r="J11" s="18" t="s">
         <v>17</v>
       </c>
@@ -1887,7 +3967,7 @@
       </c>
     </row>
     <row r="12" spans="3:15" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="43"/>
+      <c r="C12" s="47"/>
       <c r="D12" t="s">
         <v>6</v>
       </c>
@@ -1899,7 +3979,7 @@
       </c>
     </row>
     <row r="13" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C13" s="43"/>
+      <c r="C13" s="47"/>
       <c r="D13" t="s">
         <v>1</v>
       </c>
@@ -1911,7 +3991,7 @@
       </c>
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C14" s="43"/>
+      <c r="C14" s="47"/>
       <c r="D14" t="s">
         <v>2</v>
       </c>
@@ -1923,7 +4003,7 @@
       </c>
     </row>
     <row r="15" spans="3:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="47" t="s">
         <v>19</v>
       </c>
       <c r="D15" t="s">
@@ -1931,7 +4011,7 @@
       </c>
     </row>
     <row r="16" spans="3:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="43"/>
+      <c r="C16" s="47"/>
       <c r="D16" t="s">
         <v>5</v>
       </c>
@@ -1952,7 +4032,7 @@
       </c>
     </row>
     <row r="17" spans="3:16" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="43"/>
+      <c r="C17" s="47"/>
       <c r="D17" t="s">
         <v>6</v>
       </c>
@@ -1973,7 +4053,7 @@
       </c>
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C18" s="43"/>
+      <c r="C18" s="47"/>
       <c r="D18" t="s">
         <v>1</v>
       </c>
@@ -1994,7 +4074,7 @@
       </c>
     </row>
     <row r="19" spans="3:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="43"/>
+      <c r="C19" s="47"/>
       <c r="D19" t="s">
         <v>2</v>
       </c>
@@ -2109,7 +4189,7 @@
       </c>
     </row>
     <row r="30" spans="3:16" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="J30" s="44" t="s">
+      <c r="J30" s="48" t="s">
         <v>3</v>
       </c>
       <c r="K30" s="15" t="s">
@@ -2132,7 +4212,7 @@
       </c>
     </row>
     <row r="31" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="J31" s="45"/>
+      <c r="J31" s="49"/>
       <c r="K31" s="16" t="s">
         <v>17</v>
       </c>
@@ -2153,7 +4233,7 @@
       </c>
     </row>
     <row r="32" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="J32" s="46" t="s">
+      <c r="J32" s="50" t="s">
         <v>18</v>
       </c>
       <c r="K32" s="17" t="s">
@@ -2176,7 +4256,7 @@
       </c>
     </row>
     <row r="33" spans="10:16" x14ac:dyDescent="0.2">
-      <c r="J33" s="45"/>
+      <c r="J33" s="49"/>
       <c r="K33" s="16" t="s">
         <v>17</v>
       </c>
@@ -2197,7 +4277,7 @@
       </c>
     </row>
     <row r="34" spans="10:16" x14ac:dyDescent="0.2">
-      <c r="J34" s="47" t="s">
+      <c r="J34" s="51" t="s">
         <v>19</v>
       </c>
       <c r="K34" s="15" t="s">
@@ -2220,7 +4300,7 @@
       </c>
     </row>
     <row r="35" spans="10:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J35" s="48"/>
+      <c r="J35" s="52"/>
       <c r="K35" s="18" t="s">
         <v>17</v>
       </c>
@@ -2262,7 +4342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83574F29-7C46-7341-8400-FC1C4533CA25}">
   <dimension ref="F3:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
@@ -2377,72 +4457,72 @@
       </c>
     </row>
     <row r="13" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F13" s="55" t="s">
+      <c r="F13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="56">
+      <c r="G13" s="7">
         <v>16.91</v>
       </c>
-      <c r="H13" s="56">
+      <c r="H13" s="7">
         <v>4.5</v>
       </c>
-      <c r="I13" s="56">
+      <c r="I13" s="7">
         <v>4.2699999999999996</v>
       </c>
     </row>
     <row r="14" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F14" s="55" t="s">
+      <c r="F14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="56">
+      <c r="G14" s="7">
         <v>14.61</v>
       </c>
-      <c r="H14" s="56">
+      <c r="H14" s="7">
         <v>2.25</v>
       </c>
-      <c r="I14" s="56">
+      <c r="I14" s="7">
         <v>4.2300000000000004</v>
       </c>
     </row>
     <row r="15" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F15" s="55" t="s">
+      <c r="F15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="56">
+      <c r="G15" s="7">
         <v>16.04</v>
       </c>
-      <c r="H15" s="56">
+      <c r="H15" s="7">
         <v>4.3600000000000003</v>
       </c>
-      <c r="I15" s="56">
+      <c r="I15" s="7">
         <v>4.3499999999999996</v>
       </c>
     </row>
     <row r="16" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F16" s="55" t="s">
+      <c r="F16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="56">
+      <c r="G16" s="7">
         <v>15.28</v>
       </c>
-      <c r="H16" s="56">
+      <c r="H16" s="7">
         <v>2.06</v>
       </c>
-      <c r="I16" s="56">
+      <c r="I16" s="7">
         <v>4.21</v>
       </c>
     </row>
     <row r="17" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F17" s="55" t="s">
+      <c r="F17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="56">
+      <c r="G17" s="7">
         <v>16.600000000000001</v>
       </c>
-      <c r="H17" s="56">
+      <c r="H17" s="7">
         <v>4.6100000000000003</v>
       </c>
-      <c r="I17" s="56">
+      <c r="I17" s="7">
         <v>4.55</v>
       </c>
     </row>
@@ -2475,16 +4555,16 @@
       </c>
     </row>
     <row r="23" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F23" s="59" t="s">
+      <c r="F23" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="59" t="s">
+      <c r="G23" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="H23" s="59" t="s">
+      <c r="H23" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="I23" s="59" t="s">
+      <c r="I23" s="45" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2492,13 +4572,13 @@
       <c r="F24" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G24" s="57">
+      <c r="G24" s="43">
         <v>0.14610000000000001</v>
       </c>
-      <c r="H24" s="57">
+      <c r="H24" s="43">
         <v>0.52439999999999998</v>
       </c>
-      <c r="I24" s="57">
+      <c r="I24" s="43">
         <v>0.18029999999999999</v>
       </c>
     </row>
@@ -2506,13 +4586,13 @@
       <c r="F25" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G25" s="57">
+      <c r="G25" s="43">
         <v>8.9200000000000002E-2</v>
       </c>
-      <c r="H25" s="57">
+      <c r="H25" s="43">
         <v>0.4839</v>
       </c>
-      <c r="I25" s="57">
+      <c r="I25" s="43">
         <v>2.76E-2</v>
       </c>
     </row>
@@ -2520,13 +4600,13 @@
       <c r="F26" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G26" s="57">
+      <c r="G26" s="43">
         <v>7.9500000000000001E-2</v>
       </c>
-      <c r="H26" s="57">
+      <c r="H26" s="43">
         <v>0.55310000000000004</v>
       </c>
-      <c r="I26" s="57">
+      <c r="I26" s="43">
         <v>7.4700000000000003E-2</v>
       </c>
     </row>
@@ -2534,13 +4614,13 @@
       <c r="F27" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G27" s="60">
+      <c r="G27" s="46">
         <v>5.16E-2</v>
       </c>
-      <c r="H27" s="60">
+      <c r="H27" s="46">
         <v>0.55769999999999997</v>
       </c>
-      <c r="I27" s="60">
+      <c r="I27" s="46">
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
@@ -2590,27 +4670,27 @@
       <c r="F33" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="G33" s="58">
+      <c r="G33" s="44">
         <v>0.14610000000000001</v>
       </c>
-      <c r="H33" s="58">
+      <c r="H33" s="44">
         <v>0.52439999999999998</v>
       </c>
-      <c r="I33" s="58">
+      <c r="I33" s="44">
         <v>0.18029999999999999</v>
       </c>
     </row>
     <row r="34" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F34" s="55" t="s">
+      <c r="F34" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G34" s="56">
+      <c r="G34" s="7">
         <v>14.61</v>
       </c>
-      <c r="H34" s="56">
+      <c r="H34" s="7">
         <v>2.25</v>
       </c>
-      <c r="I34" s="56">
+      <c r="I34" s="7">
         <v>4.2300000000000004</v>
       </c>
     </row>
@@ -2632,41 +4712,41 @@
       <c r="F36" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="G36" s="58">
+      <c r="G36" s="44">
         <v>8.9200000000000002E-2</v>
       </c>
-      <c r="H36" s="58">
+      <c r="H36" s="44">
         <v>0.4839</v>
       </c>
-      <c r="I36" s="58">
+      <c r="I36" s="44">
         <v>2.76E-2</v>
       </c>
     </row>
     <row r="37" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F37" s="55" t="s">
+      <c r="F37" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G37" s="56">
+      <c r="G37" s="7">
         <v>15.28</v>
       </c>
-      <c r="H37" s="56">
+      <c r="H37" s="7">
         <v>2.06</v>
       </c>
-      <c r="I37" s="56">
+      <c r="I37" s="7">
         <v>4.21</v>
       </c>
     </row>
     <row r="38" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F38" s="55" t="s">
+      <c r="F38" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G38" s="56">
+      <c r="G38" s="7">
         <v>16.600000000000001</v>
       </c>
-      <c r="H38" s="56">
+      <c r="H38" s="7">
         <v>4.6100000000000003</v>
       </c>
-      <c r="I38" s="56">
+      <c r="I38" s="7">
         <v>4.55</v>
       </c>
     </row>
@@ -2674,13 +4754,13 @@
       <c r="F39" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="G39" s="58">
+      <c r="G39" s="44">
         <v>7.9500000000000001E-2</v>
       </c>
-      <c r="H39" s="58">
+      <c r="H39" s="44">
         <v>0.55310000000000004</v>
       </c>
-      <c r="I39" s="58">
+      <c r="I39" s="44">
         <v>7.4700000000000003E-2</v>
       </c>
     </row>
@@ -2716,13 +4796,13 @@
       <c r="F42" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="G42" s="58">
+      <c r="G42" s="44">
         <v>5.16E-2</v>
       </c>
-      <c r="H42" s="58">
+      <c r="H42" s="44">
         <v>0.55769999999999997</v>
       </c>
-      <c r="I42" s="58">
+      <c r="I42" s="44">
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
@@ -2734,23 +4814,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B03FF77-2587-DC43-853A-7572502D4BD9}">
-  <dimension ref="F3:W32"/>
+  <dimension ref="F3:X88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V22" sqref="V22"/>
+    <sheetView topLeftCell="G34" workbookViewId="0">
+      <selection activeCell="N68" sqref="N68:W68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="12.1640625" customWidth="1"/>
     <col min="7" max="7" width="24.6640625" customWidth="1"/>
-    <col min="16" max="16" width="7.33203125" customWidth="1"/>
-    <col min="17" max="17" width="16.83203125" customWidth="1"/>
-    <col min="18" max="18" width="14.5" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" customWidth="1"/>
+    <col min="18" max="18" width="16.83203125" customWidth="1"/>
+    <col min="19" max="19" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="6:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="6:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="6:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="6:13" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F4" s="23" t="s">
         <v>21</v>
       </c>
@@ -2772,9 +4852,10 @@
       <c r="L4" s="13" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="6:12" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="F5" s="49" t="s">
+      <c r="M4" s="61"/>
+    </row>
+    <row r="5" spans="6:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="F5" s="53" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="31" t="s">
@@ -2795,9 +4876,10 @@
       <c r="L5" s="30">
         <v>5.68</v>
       </c>
-    </row>
-    <row r="6" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F6" s="50"/>
+      <c r="M5" s="62"/>
+    </row>
+    <row r="6" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="F6" s="54"/>
       <c r="G6" s="11" t="s">
         <v>27</v>
       </c>
@@ -2816,9 +4898,10 @@
       <c r="L6" s="7">
         <v>5.77</v>
       </c>
-    </row>
-    <row r="7" spans="6:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F7" s="51"/>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="6:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="55"/>
       <c r="G7" s="11" t="s">
         <v>28</v>
       </c>
@@ -2830,9 +4913,10 @@
       <c r="J7" s="4"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
-    </row>
-    <row r="8" spans="6:12" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="F8" s="52" t="s">
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="6:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="F8" s="56" t="s">
         <v>18</v>
       </c>
       <c r="G8" s="31" t="s">
@@ -2853,9 +4937,10 @@
       <c r="L8" s="6">
         <v>2.0299999999999998</v>
       </c>
-    </row>
-    <row r="9" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F9" s="50"/>
+      <c r="M8" s="62"/>
+    </row>
+    <row r="9" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="F9" s="54"/>
       <c r="G9" s="11" t="s">
         <v>27</v>
       </c>
@@ -2874,18 +4959,20 @@
       <c r="L9" s="7">
         <v>2.0099999999999998</v>
       </c>
-    </row>
-    <row r="10" spans="6:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F10" s="51"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="6:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="55"/>
       <c r="G10" s="34"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
-    </row>
-    <row r="11" spans="6:12" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="F11" s="50" t="s">
+      <c r="M10" s="62"/>
+    </row>
+    <row r="11" spans="6:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="F11" s="54" t="s">
         <v>19</v>
       </c>
       <c r="G11" s="31" t="s">
@@ -2906,9 +4993,10 @@
       <c r="L11" s="7">
         <v>3.66</v>
       </c>
-    </row>
-    <row r="12" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F12" s="50"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="F12" s="54"/>
       <c r="G12" s="11" t="s">
         <v>27</v>
       </c>
@@ -2927,17 +5015,19 @@
       <c r="L12" s="7">
         <v>3.45</v>
       </c>
-    </row>
-    <row r="13" spans="6:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F13" s="53"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="6:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="57"/>
       <c r="G13" s="12"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
-    </row>
-    <row r="14" spans="6:12" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="M13" s="62"/>
+    </row>
+    <row r="14" spans="6:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="7"/>
@@ -2945,8 +5035,9 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
-    </row>
-    <row r="15" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="7"/>
+    </row>
+    <row r="15" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="7"/>
@@ -2954,120 +5045,121 @@
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
-    </row>
-    <row r="16" spans="6:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="6:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="Q17" s="23" t="s">
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16" spans="6:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="6:24" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R17" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="R17" s="23" t="s">
+      <c r="S17" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="S17" s="13" t="s">
+      <c r="T17" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="T17" s="13" t="s">
+      <c r="U17" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="U17" s="13" t="s">
+      <c r="V17" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="V17" s="13" t="s">
+      <c r="W17" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="W17" s="13" t="s">
+      <c r="X17" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="6:23" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="Q18" s="49" t="s">
+    <row r="18" spans="6:24" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="R18" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="R18" s="31" t="s">
+      <c r="S18" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="S18" s="30">
+      <c r="T18" s="30">
         <v>4.5</v>
       </c>
-      <c r="T18" s="30">
+      <c r="U18" s="30">
         <v>5.44</v>
       </c>
-      <c r="U18" s="30">
+      <c r="V18" s="30">
         <v>8.31</v>
       </c>
-      <c r="V18" s="30">
+      <c r="W18" s="30">
         <v>9.35</v>
       </c>
-      <c r="W18" s="30">
+      <c r="X18" s="30">
         <v>5.86</v>
       </c>
     </row>
-    <row r="19" spans="6:23" x14ac:dyDescent="0.2">
-      <c r="Q19" s="43"/>
-      <c r="R19" s="32" t="s">
+    <row r="19" spans="6:24" x14ac:dyDescent="0.2">
+      <c r="R19" s="47"/>
+      <c r="S19" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="S19" s="7">
+      <c r="T19" s="7">
         <v>14.21</v>
       </c>
-      <c r="T19" s="7">
+      <c r="U19" s="7">
         <v>14.61</v>
       </c>
-      <c r="U19" s="4">
+      <c r="V19" s="4">
         <v>15.28</v>
       </c>
-      <c r="V19" s="7">
+      <c r="W19" s="7">
         <v>14.44</v>
       </c>
-      <c r="W19" s="7">
+      <c r="X19" s="7">
         <v>14.16</v>
       </c>
     </row>
-    <row r="20" spans="6:23" x14ac:dyDescent="0.2">
-      <c r="Q20" s="52" t="s">
+    <row r="20" spans="6:24" x14ac:dyDescent="0.2">
+      <c r="R20" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="R20" s="35" t="s">
+      <c r="S20" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="S20" s="33">
+      <c r="T20" s="33">
         <v>1.98</v>
       </c>
-      <c r="T20" s="6">
+      <c r="U20" s="6">
         <v>2.25</v>
       </c>
-      <c r="U20" s="6">
+      <c r="V20" s="6">
         <v>2.06</v>
       </c>
-      <c r="V20" s="6">
+      <c r="W20" s="6">
         <v>2.14</v>
       </c>
-      <c r="W20" s="6">
+      <c r="X20" s="6">
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="21" spans="6:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="Q21" s="50"/>
-      <c r="R21" s="11" t="s">
+    <row r="21" spans="6:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R21" s="54"/>
+      <c r="S21" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="S21" s="7">
+      <c r="T21" s="7">
         <v>3</v>
       </c>
-      <c r="T21" s="7">
+      <c r="U21" s="7">
         <v>3.08</v>
       </c>
-      <c r="U21" s="7">
+      <c r="V21" s="7">
         <v>3.02</v>
       </c>
-      <c r="V21" s="7">
+      <c r="W21" s="7">
         <v>3</v>
       </c>
-      <c r="W21" s="7">
+      <c r="X21" s="7">
         <v>2.79</v>
       </c>
     </row>
-    <row r="22" spans="6:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:24" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F22" s="23" t="s">
         <v>21</v>
       </c>
@@ -3089,30 +5181,31 @@
       <c r="L22" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="Q22" s="52" t="s">
+      <c r="M22" s="61"/>
+      <c r="R22" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="R22" s="35" t="s">
+      <c r="S22" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="S22" s="33">
+      <c r="T22" s="33">
         <v>4.8</v>
       </c>
-      <c r="T22" s="6">
+      <c r="U22" s="6">
         <v>4.2300000000000004</v>
       </c>
-      <c r="U22" s="6">
+      <c r="V22" s="6">
         <v>4.21</v>
       </c>
-      <c r="V22" s="6">
+      <c r="W22" s="6">
         <v>3.5</v>
       </c>
-      <c r="W22" s="6">
+      <c r="X22" s="6">
         <v>3.71</v>
       </c>
     </row>
-    <row r="23" spans="6:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F23" s="49" t="s">
+    <row r="23" spans="6:24" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="53" t="s">
         <v>3</v>
       </c>
       <c r="G23" s="31" t="s">
@@ -3133,28 +5226,29 @@
       <c r="L23" s="30">
         <v>5.86</v>
       </c>
-      <c r="Q23" s="54"/>
-      <c r="R23" s="38" t="s">
+      <c r="M23" s="62"/>
+      <c r="R23" s="58"/>
+      <c r="S23" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="S23" s="39">
+      <c r="T23" s="39">
         <v>4.2</v>
       </c>
-      <c r="T23" s="40">
+      <c r="U23" s="40">
         <v>4.4000000000000004</v>
       </c>
-      <c r="U23" s="40">
+      <c r="V23" s="40">
         <v>4.24</v>
       </c>
-      <c r="V23" s="40">
+      <c r="W23" s="40">
         <v>4.38</v>
       </c>
-      <c r="W23" s="40">
+      <c r="X23" s="40">
         <v>3.63</v>
       </c>
     </row>
-    <row r="24" spans="6:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F24" s="43"/>
+    <row r="24" spans="6:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F24" s="47"/>
       <c r="G24" s="32" t="s">
         <v>30</v>
       </c>
@@ -3173,10 +5267,11 @@
       <c r="L24" s="7">
         <v>14.16</v>
       </c>
-      <c r="Q24" s="37"/>
-    </row>
-    <row r="25" spans="6:23" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="F25" s="51"/>
+      <c r="M24" s="7"/>
+      <c r="R24" s="37"/>
+    </row>
+    <row r="25" spans="6:24" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="F25" s="55"/>
       <c r="G25" s="11" t="s">
         <v>31</v>
       </c>
@@ -3200,9 +5295,10 @@
         <f>(H24-L24)/H24*100</f>
         <v>0.3518648838845933</v>
       </c>
-    </row>
-    <row r="26" spans="6:23" x14ac:dyDescent="0.2">
-      <c r="F26" s="52" t="s">
+      <c r="M25" s="7"/>
+    </row>
+    <row r="26" spans="6:24" x14ac:dyDescent="0.2">
+      <c r="F26" s="56" t="s">
         <v>18</v>
       </c>
       <c r="G26" s="35" t="s">
@@ -3223,9 +5319,10 @@
       <c r="L26" s="6">
         <v>2.0299999999999998</v>
       </c>
-    </row>
-    <row r="27" spans="6:23" x14ac:dyDescent="0.2">
-      <c r="F27" s="50"/>
+      <c r="M26" s="62"/>
+    </row>
+    <row r="27" spans="6:24" x14ac:dyDescent="0.2">
+      <c r="F27" s="54"/>
       <c r="G27" s="11" t="s">
         <v>30</v>
       </c>
@@ -3244,9 +5341,10 @@
       <c r="L27" s="7">
         <v>2.79</v>
       </c>
-    </row>
-    <row r="28" spans="6:23" x14ac:dyDescent="0.2">
-      <c r="F28" s="51"/>
+      <c r="M27" s="7"/>
+    </row>
+    <row r="28" spans="6:24" x14ac:dyDescent="0.2">
+      <c r="F28" s="55"/>
       <c r="G28" s="32" t="s">
         <v>31</v>
       </c>
@@ -3270,9 +5368,10 @@
         <f>(H27-L27)/H27*100</f>
         <v>6.9999999999999991</v>
       </c>
-    </row>
-    <row r="29" spans="6:23" x14ac:dyDescent="0.2">
-      <c r="F29" s="50" t="s">
+      <c r="M28" s="62"/>
+    </row>
+    <row r="29" spans="6:24" x14ac:dyDescent="0.2">
+      <c r="F29" s="54" t="s">
         <v>19</v>
       </c>
       <c r="G29" s="35" t="s">
@@ -3293,9 +5392,10 @@
       <c r="L29" s="7">
         <v>3.71</v>
       </c>
-    </row>
-    <row r="30" spans="6:23" x14ac:dyDescent="0.2">
-      <c r="F30" s="50"/>
+      <c r="M29" s="7"/>
+    </row>
+    <row r="30" spans="6:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F30" s="54"/>
       <c r="G30" s="11" t="s">
         <v>30</v>
       </c>
@@ -3314,9 +5414,10 @@
       <c r="L30" s="7">
         <v>3.63</v>
       </c>
-    </row>
-    <row r="31" spans="6:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F31" s="53"/>
+      <c r="M30" s="7"/>
+    </row>
+    <row r="31" spans="6:24" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F31" s="57"/>
       <c r="G31" s="12" t="s">
         <v>31</v>
       </c>
@@ -3334,31 +5435,981 @@
       </c>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
-    </row>
-    <row r="32" spans="6:23" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="M31" s="62"/>
+      <c r="R31" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="S31" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="T31" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="U31" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="V31" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="W31" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="X31" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="6:24" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="R32" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="S32" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="T32" s="30">
+        <v>4.5</v>
+      </c>
+      <c r="U32" s="30">
+        <v>5.44</v>
+      </c>
+      <c r="V32" s="30">
+        <v>8.31</v>
+      </c>
+      <c r="W32" s="30">
+        <v>9.35</v>
+      </c>
+      <c r="X32" s="30">
+        <v>5.86</v>
+      </c>
+    </row>
+    <row r="33" spans="11:24" x14ac:dyDescent="0.2">
+      <c r="R33" s="47"/>
+      <c r="S33" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="T33" s="7">
+        <v>14.21</v>
+      </c>
+      <c r="U33" s="7">
+        <v>14.61</v>
+      </c>
+      <c r="V33" s="4">
+        <v>15.28</v>
+      </c>
+      <c r="W33" s="7">
+        <v>14.44</v>
+      </c>
+      <c r="X33" s="7">
+        <v>14.16</v>
+      </c>
+    </row>
+    <row r="34" spans="11:24" x14ac:dyDescent="0.2">
+      <c r="R34" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="S34" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="T34" s="33">
+        <v>1.98</v>
+      </c>
+      <c r="U34" s="6">
+        <v>2.25</v>
+      </c>
+      <c r="V34" s="6">
+        <v>2.06</v>
+      </c>
+      <c r="W34" s="6">
+        <v>2.14</v>
+      </c>
+      <c r="X34" s="6">
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="11:24" x14ac:dyDescent="0.2">
+      <c r="R35" s="54"/>
+      <c r="S35" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="T35" s="7">
+        <v>3</v>
+      </c>
+      <c r="U35" s="7">
+        <v>3.08</v>
+      </c>
+      <c r="V35" s="7">
+        <v>3.02</v>
+      </c>
+      <c r="W35" s="7">
+        <v>3</v>
+      </c>
+      <c r="X35" s="7">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="36" spans="11:24" x14ac:dyDescent="0.2">
+      <c r="R36" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="S36" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="T36" s="33">
+        <v>4.8</v>
+      </c>
+      <c r="U36" s="6">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="V36" s="6">
+        <v>4.21</v>
+      </c>
+      <c r="W36" s="6">
+        <v>3.52</v>
+      </c>
+      <c r="X36" s="6">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="37" spans="11:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R37" s="58"/>
+      <c r="S37" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="T37" s="39">
+        <v>4.2</v>
+      </c>
+      <c r="U37" s="40">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="V37" s="40">
+        <v>4.24</v>
+      </c>
+      <c r="W37" s="40">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="X37" s="40">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="40" spans="11:24" x14ac:dyDescent="0.2">
+      <c r="N40">
+        <v>15</v>
+      </c>
+      <c r="O40" s="65">
+        <v>30</v>
+      </c>
+      <c r="P40">
+        <v>45</v>
+      </c>
+      <c r="Q40">
+        <v>60</v>
+      </c>
+      <c r="R40">
+        <v>75</v>
+      </c>
+      <c r="S40">
+        <v>90</v>
+      </c>
+      <c r="T40">
+        <v>120</v>
+      </c>
+      <c r="U40">
+        <v>150</v>
+      </c>
+      <c r="V40">
+        <v>180</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="11:24" x14ac:dyDescent="0.2">
+      <c r="K41" t="s">
+        <v>1</v>
+      </c>
+      <c r="L41" t="s">
+        <v>55</v>
+      </c>
+      <c r="M41" t="s">
+        <v>57</v>
+      </c>
+      <c r="N41">
+        <v>3.5870000000000002</v>
+      </c>
+      <c r="O41" s="65">
+        <v>3.54</v>
+      </c>
+      <c r="P41">
+        <v>3.532</v>
+      </c>
+      <c r="Q41">
+        <v>3.496</v>
+      </c>
+      <c r="R41">
+        <v>3.4860000000000002</v>
+      </c>
+      <c r="S41">
+        <v>3.5760000000000001</v>
+      </c>
+      <c r="T41" s="60">
+        <v>3.5339999999999998</v>
+      </c>
+      <c r="U41" s="63">
+        <v>3.512</v>
+      </c>
+      <c r="V41" s="63">
+        <v>3.653</v>
+      </c>
+      <c r="W41">
+        <v>4.3490000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="11:24" x14ac:dyDescent="0.2">
+      <c r="M42" t="s">
+        <v>58</v>
+      </c>
+      <c r="N42">
+        <v>2.3730000000000002</v>
+      </c>
+      <c r="O42" s="65">
+        <v>2.3479999999999999</v>
+      </c>
+      <c r="P42">
+        <v>2.347</v>
+      </c>
+      <c r="Q42">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="R42">
+        <v>2.3220000000000001</v>
+      </c>
+      <c r="S42">
+        <v>2.3660000000000001</v>
+      </c>
+      <c r="T42" s="60">
+        <v>2.3439999999999999</v>
+      </c>
+      <c r="U42" s="63">
+        <v>2.327</v>
+      </c>
+      <c r="V42" s="63">
+        <v>2.4089999999999998</v>
+      </c>
+      <c r="W42">
+        <v>2.8450000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="11:24" x14ac:dyDescent="0.2">
+      <c r="O43" s="65"/>
+    </row>
+    <row r="44" spans="11:24" x14ac:dyDescent="0.2">
+      <c r="L44" t="s">
+        <v>56</v>
+      </c>
+      <c r="N44">
+        <v>2.028</v>
+      </c>
+      <c r="O44" s="65">
+        <v>2.077</v>
+      </c>
+      <c r="P44">
+        <v>2.1440000000000001</v>
+      </c>
+      <c r="Q44">
+        <v>2.222</v>
+      </c>
+      <c r="R44">
+        <v>2.165</v>
+      </c>
+      <c r="S44">
+        <v>2.2309999999999999</v>
+      </c>
+      <c r="T44">
+        <v>2.3210000000000002</v>
+      </c>
+      <c r="U44">
+        <v>2.4129999999999998</v>
+      </c>
+      <c r="V44">
+        <v>2.4289999999999998</v>
+      </c>
+      <c r="W44">
+        <v>3.2610000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="11:24" x14ac:dyDescent="0.2">
+      <c r="N45">
+        <v>1.448</v>
+      </c>
+      <c r="O45" s="65">
+        <v>1.4710000000000001</v>
+      </c>
+      <c r="P45">
+        <v>1.5169999999999999</v>
+      </c>
+      <c r="Q45">
+        <v>1.5529999999999999</v>
+      </c>
+      <c r="R45">
+        <v>1.5349999999999999</v>
+      </c>
+      <c r="S45">
+        <v>1.5720000000000001</v>
+      </c>
+      <c r="T45">
+        <v>1.639</v>
+      </c>
+      <c r="U45">
+        <v>1.6870000000000001</v>
+      </c>
+      <c r="V45">
+        <v>1.734</v>
+      </c>
+      <c r="W45">
+        <v>2.3860000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="11:24" x14ac:dyDescent="0.2">
+      <c r="L46" t="s">
+        <v>62</v>
+      </c>
+      <c r="O46" s="65">
+        <v>8.6300000000000008</v>
+      </c>
+    </row>
+    <row r="47" spans="11:24" x14ac:dyDescent="0.2">
+      <c r="O47" s="65">
+        <v>4.67</v>
+      </c>
+    </row>
+    <row r="48" spans="11:24" x14ac:dyDescent="0.2">
+      <c r="K48" t="s">
+        <v>2</v>
+      </c>
+      <c r="L48" t="s">
+        <v>54</v>
+      </c>
+      <c r="M48" t="s">
+        <v>57</v>
+      </c>
+      <c r="N48">
+        <v>3.7090000000000001</v>
+      </c>
+      <c r="O48" s="65">
+        <v>3.68</v>
+      </c>
+      <c r="P48">
+        <v>3.6739999999999999</v>
+      </c>
+      <c r="Q48">
+        <v>3.6520000000000001</v>
+      </c>
+      <c r="R48">
+        <v>3.65</v>
+      </c>
+      <c r="S48">
+        <v>3.6619999999999999</v>
+      </c>
+      <c r="T48">
+        <v>3.6219999999999999</v>
+      </c>
+      <c r="U48">
+        <v>3.6520000000000001</v>
+      </c>
+      <c r="V48">
+        <v>3.641</v>
+      </c>
+      <c r="W48">
+        <v>3.7490000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="M49" t="s">
+        <v>58</v>
+      </c>
+      <c r="N49">
+        <v>2.3220000000000001</v>
+      </c>
+      <c r="O49" s="65">
+        <v>2.3140000000000001</v>
+      </c>
+      <c r="P49">
+        <v>2.3069999999999999</v>
+      </c>
+      <c r="Q49">
+        <v>2.2970000000000002</v>
+      </c>
+      <c r="R49">
+        <v>2.2959999999999998</v>
+      </c>
+      <c r="S49">
+        <v>2.3010000000000002</v>
+      </c>
+      <c r="T49">
+        <v>2.274</v>
+      </c>
+      <c r="U49">
+        <v>2.2949999999999999</v>
+      </c>
+      <c r="V49">
+        <v>2.2879999999999998</v>
+      </c>
+      <c r="W49">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="50" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="O50" s="65"/>
+    </row>
+    <row r="51" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="L51" t="s">
+        <v>56</v>
+      </c>
+      <c r="N51">
+        <v>2.0539999999999998</v>
+      </c>
+      <c r="O51" s="65">
+        <v>2.0019999999999998</v>
+      </c>
+      <c r="P51">
+        <v>1.998</v>
+      </c>
+      <c r="Q51">
+        <v>1.9950000000000001</v>
+      </c>
+      <c r="R51">
+        <v>1.9970000000000001</v>
+      </c>
+      <c r="S51">
+        <v>1.986</v>
+      </c>
+      <c r="T51">
+        <v>1.996</v>
+      </c>
+      <c r="U51">
+        <v>1.9970000000000001</v>
+      </c>
+      <c r="V51">
+        <v>2.0049999999999999</v>
+      </c>
+      <c r="W51">
+        <v>2.089</v>
+      </c>
+    </row>
+    <row r="52" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="N52">
+        <v>1.4530000000000001</v>
+      </c>
+      <c r="O52" s="65">
+        <v>1.409</v>
+      </c>
+      <c r="P52">
+        <v>1.407</v>
+      </c>
+      <c r="Q52">
+        <v>1.403</v>
+      </c>
+      <c r="R52">
+        <v>1.4059999999999999</v>
+      </c>
+      <c r="S52">
+        <v>1.3979999999999999</v>
+      </c>
+      <c r="T52">
+        <v>1.4059999999999999</v>
+      </c>
+      <c r="U52">
+        <v>1.403</v>
+      </c>
+      <c r="V52">
+        <v>1.4079999999999999</v>
+      </c>
+      <c r="W52">
+        <v>1.4770000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="L53" t="s">
+        <v>62</v>
+      </c>
+      <c r="O53" s="65">
+        <v>5.8490000000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="O54" s="65">
+        <v>3.411</v>
+      </c>
+    </row>
+    <row r="55" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="K55" t="s">
+        <v>5</v>
+      </c>
+      <c r="L55" t="s">
+        <v>60</v>
+      </c>
+      <c r="M55" t="s">
+        <v>57</v>
+      </c>
+      <c r="N55">
+        <v>4.8550000000000004</v>
+      </c>
+      <c r="O55" s="65">
+        <v>5.3010000000000002</v>
+      </c>
+      <c r="P55">
+        <v>5.7629999999999999</v>
+      </c>
+      <c r="Q55">
+        <v>6.165</v>
+      </c>
+      <c r="R55">
+        <v>6.6159999999999997</v>
+      </c>
+      <c r="S55">
+        <v>7.0410000000000004</v>
+      </c>
+      <c r="T55">
+        <v>7.7779999999999996</v>
+      </c>
+      <c r="U55">
+        <v>8.5090000000000003</v>
+      </c>
+      <c r="V55" t="s">
+        <v>65</v>
+      </c>
+      <c r="W55">
+        <v>16.027999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="M56" t="s">
+        <v>58</v>
+      </c>
+      <c r="N56">
+        <v>2.952</v>
+      </c>
+      <c r="O56" s="65">
+        <v>3.056</v>
+      </c>
+      <c r="P56">
+        <v>3.2280000000000002</v>
+      </c>
+      <c r="Q56">
+        <v>3.3929999999999998</v>
+      </c>
+      <c r="R56">
+        <v>3.5659999999999998</v>
+      </c>
+      <c r="S56">
+        <v>3.7639999999999998</v>
+      </c>
+      <c r="T56">
+        <v>4.1020000000000003</v>
+      </c>
+      <c r="U56">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="V56" t="s">
+        <v>65</v>
+      </c>
+      <c r="W56">
+        <v>11.568</v>
+      </c>
+    </row>
+    <row r="57" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="L57" t="s">
+        <v>56</v>
+      </c>
+      <c r="N57">
+        <v>2.206</v>
+      </c>
+      <c r="O57" s="65">
+        <v>2.2080000000000002</v>
+      </c>
+      <c r="P57">
+        <v>2.2250000000000001</v>
+      </c>
+      <c r="Q57">
+        <v>2.242</v>
+      </c>
+      <c r="R57">
+        <v>2.282</v>
+      </c>
+      <c r="S57">
+        <v>2.31</v>
+      </c>
+      <c r="T57">
+        <v>2.3610000000000002</v>
+      </c>
+      <c r="U57">
+        <v>2.3940000000000001</v>
+      </c>
+      <c r="V57">
+        <v>2.38</v>
+      </c>
+      <c r="W57">
+        <v>3.3290000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="N58">
+        <v>1.6040000000000001</v>
+      </c>
+      <c r="O58" s="65">
+        <v>1.603</v>
+      </c>
+      <c r="P58">
+        <v>1.6180000000000001</v>
+      </c>
+      <c r="Q58">
+        <v>1.623</v>
+      </c>
+      <c r="R58">
+        <v>1.649</v>
+      </c>
+      <c r="S58">
+        <v>1.66</v>
+      </c>
+      <c r="T58">
+        <v>1.6919999999999999</v>
+      </c>
+      <c r="U58">
+        <v>1.7010000000000001</v>
+      </c>
+      <c r="V58">
+        <v>1.696</v>
+      </c>
+      <c r="W58">
+        <v>2.407</v>
+      </c>
+    </row>
+    <row r="59" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="L59" t="s">
+        <v>61</v>
+      </c>
+      <c r="N59">
+        <v>4.2789999999999999</v>
+      </c>
+      <c r="O59" s="65">
+        <v>4.3049999999999997</v>
+      </c>
+      <c r="P59">
+        <v>4.2539999999999996</v>
+      </c>
+      <c r="Q59">
+        <v>4.2089999999999996</v>
+      </c>
+      <c r="R59">
+        <v>4.2110000000000003</v>
+      </c>
+      <c r="S59">
+        <v>4.21</v>
+      </c>
+      <c r="T59">
+        <v>4.24</v>
+      </c>
+      <c r="U59">
+        <v>4.2089999999999996</v>
+      </c>
+      <c r="V59">
+        <v>4.2649999999999997</v>
+      </c>
+      <c r="W59">
+        <v>4.4180000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="N60">
+        <v>2.8759999999999999</v>
+      </c>
+      <c r="O60" s="65">
+        <v>2.8650000000000002</v>
+      </c>
+      <c r="P60">
+        <v>2.847</v>
+      </c>
+      <c r="Q60">
+        <v>2.8439999999999999</v>
+      </c>
+      <c r="R60">
+        <v>2.883</v>
+      </c>
+      <c r="S60">
+        <v>2.8610000000000002</v>
+      </c>
+      <c r="T60">
+        <v>2.859</v>
+      </c>
+      <c r="U60">
+        <v>2.863</v>
+      </c>
+      <c r="V60">
+        <v>2.8889999999999998</v>
+      </c>
+      <c r="W60">
+        <v>2.9889999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="K63" t="s">
+        <v>6</v>
+      </c>
+      <c r="L63" t="s">
+        <v>60</v>
+      </c>
+      <c r="M63" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="64" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="M64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L65" t="s">
+        <v>56</v>
+      </c>
+      <c r="N65">
+        <v>2.1709999999999998</v>
+      </c>
+      <c r="O65">
+        <v>2.0649999999999999</v>
+      </c>
+      <c r="P65">
+        <v>2.1520000000000001</v>
+      </c>
+      <c r="Q65">
+        <v>2.1459999999999999</v>
+      </c>
+      <c r="R65">
+        <v>2.129</v>
+      </c>
+      <c r="S65">
+        <v>2.1829999999999998</v>
+      </c>
+      <c r="T65">
+        <v>2.2330000000000001</v>
+      </c>
+      <c r="U65">
+        <v>2.1970000000000001</v>
+      </c>
+      <c r="V65">
+        <v>2.2490000000000001</v>
+      </c>
+      <c r="W65">
+        <v>2.6850000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="N66">
+        <v>1.5409999999999999</v>
+      </c>
+      <c r="O66">
+        <v>1.47</v>
+      </c>
+      <c r="P66">
+        <v>1.5329999999999999</v>
+      </c>
+      <c r="Q66">
+        <v>1.528</v>
+      </c>
+      <c r="R66">
+        <v>1.516</v>
+      </c>
+      <c r="S66">
+        <v>1.548</v>
+      </c>
+      <c r="T66">
+        <v>1.5669999999999999</v>
+      </c>
+      <c r="U66">
+        <v>1.5589999999999999</v>
+      </c>
+      <c r="V66">
+        <v>1.613</v>
+      </c>
+      <c r="W66">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="67" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L67" t="s">
+        <v>61</v>
+      </c>
+      <c r="N67">
+        <v>4.4359999999999999</v>
+      </c>
+      <c r="O67">
+        <v>4.3449999999999998</v>
+      </c>
+      <c r="P67">
+        <v>4.2460000000000004</v>
+      </c>
+      <c r="Q67">
+        <v>4.2380000000000004</v>
+      </c>
+      <c r="R67">
+        <v>4.1870000000000003</v>
+      </c>
+      <c r="S67">
+        <v>4.2290000000000001</v>
+      </c>
+      <c r="T67">
+        <v>4.2279999999999998</v>
+      </c>
+      <c r="U67">
+        <v>4.2089999999999996</v>
+      </c>
+      <c r="V67">
+        <v>4.2389999999999999</v>
+      </c>
+      <c r="W67">
+        <v>4.5819999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="N68">
+        <v>2.9009999999999998</v>
+      </c>
+      <c r="O68">
+        <v>2.8610000000000002</v>
+      </c>
+      <c r="P68">
+        <v>2.782</v>
+      </c>
+      <c r="Q68">
+        <v>2.7930000000000001</v>
+      </c>
+      <c r="R68">
+        <v>2.7879999999999998</v>
+      </c>
+      <c r="S68">
+        <v>2.7909999999999999</v>
+      </c>
+      <c r="T68">
+        <v>2.786</v>
+      </c>
+      <c r="U68">
+        <v>2.7770000000000001</v>
+      </c>
+      <c r="V68">
+        <v>2.7970000000000002</v>
+      </c>
+      <c r="W68">
+        <v>2.903</v>
+      </c>
+    </row>
+    <row r="82" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="L82" s="47"/>
+      <c r="M82" s="47"/>
+      <c r="N82" s="47"/>
+      <c r="O82" s="47"/>
+      <c r="P82" s="47"/>
+      <c r="Q82" s="47"/>
+    </row>
+    <row r="83" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="K83" s="1"/>
+      <c r="L83" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="84" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J84" s="64"/>
+      <c r="K84" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L84" s="1">
+        <v>8.9</v>
+      </c>
+      <c r="M84" s="1">
+        <v>2.077</v>
+      </c>
+      <c r="N84" s="1">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="85" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J85" s="64"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1">
+        <v>4.8789999999999996</v>
+      </c>
+      <c r="M85" s="1">
+        <v>1.4710000000000001</v>
+      </c>
+      <c r="N85" s="1">
+        <v>2.3479999999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J86" s="64"/>
+      <c r="K86" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L86" s="1">
+        <v>5.3010000000000002</v>
+      </c>
+      <c r="M86" s="1">
+        <v>2.2080000000000002</v>
+      </c>
+      <c r="N86" s="1">
+        <v>4.3049999999999997</v>
+      </c>
+    </row>
+    <row r="87" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J87" s="64"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1">
+        <v>3.056</v>
+      </c>
+      <c r="M87" s="1">
+        <v>1.603</v>
+      </c>
+      <c r="N87" s="1">
+        <v>2.8650000000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J88" s="64"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="16">
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="J84:J88"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="R32:R33"/>
+    <mergeCell ref="R34:R35"/>
+    <mergeCell ref="R36:R37"/>
     <mergeCell ref="F5:F7"/>
     <mergeCell ref="F23:F25"/>
     <mergeCell ref="F26:F28"/>
     <mergeCell ref="F29:F31"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="R20:R21"/>
     <mergeCell ref="F8:F10"/>
     <mergeCell ref="F11:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD62037B-924B-AF46-BC58-DA566B550452}">
-  <dimension ref="C4:F9"/>
+  <dimension ref="C4:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3453,7 +6504,237 @@
         <v>4</v>
       </c>
     </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C21" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C26" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="61">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C27" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C28" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="9">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38B3D9C3-80EA-824C-8A6E-FE716088597B}">
+  <dimension ref="B2:H14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="13.83203125" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1670</v>
+      </c>
+      <c r="E3" s="1">
+        <v>7602</v>
+      </c>
+      <c r="F3" s="1">
+        <v>55344</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>1670</v>
+      </c>
+      <c r="E4">
+        <v>7602</v>
+      </c>
+      <c r="F4">
+        <v>65680</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>1670</v>
+      </c>
+      <c r="E5">
+        <v>7602</v>
+      </c>
+      <c r="F5">
+        <v>65680</v>
+      </c>
+      <c r="G5">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E9" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E10" s="69"/>
+      <c r="F10" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>55344</v>
+      </c>
+      <c r="G11">
+        <v>65680</v>
+      </c>
+      <c r="H11">
+        <v>65680</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="1">
+        <v>7602</v>
+      </c>
+      <c r="G12">
+        <v>7602</v>
+      </c>
+      <c r="H12">
+        <v>7602</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1670</v>
+      </c>
+      <c r="G13">
+        <v>1670</v>
+      </c>
+      <c r="H13">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E14" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="70">
+        <v>1428</v>
+      </c>
+      <c r="G14" s="70">
+        <v>1464</v>
+      </c>
+      <c r="H14" s="42">
+        <v>1470</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="E9:E10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>